--- a/helper/User_Process.xlsx
+++ b/helper/User_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="101">
   <si>
     <t>User_Process</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Belongs to User Journey Part</t>
   </si>
   <si>
-    <t>Matches Employee Process</t>
-  </si>
-  <si>
     <t>Process Flow</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
     <t>Booking_a_subscription_vehicle_online</t>
   </si>
   <si>
+    <t>Business_Intelligence</t>
+  </si>
+  <si>
     <t>LINK</t>
   </si>
   <si>
@@ -293,81 +293,6 @@
   </si>
   <si>
     <t>Others,Subscription-Get-Delivery</t>
-  </si>
-  <si>
-    <t>User_subscribes_NIO_newletter,Agent_Performance_Review</t>
-  </si>
-  <si>
-    <t>User_experiences_normal_testdrive ,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>User_experiences_2D_testdrive coupon,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>User_wants_to_book_testdrive_online,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Rebook_Testdrive,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>User_orders_Subscription_car,Receive_subscription_order_from_user</t>
-  </si>
-  <si>
-    <t>5_Year_Strategy_Planning_Presentation</t>
-  </si>
-  <si>
-    <t>5_Year_Sales_Volume_Calculation</t>
-  </si>
-  <si>
-    <t>Employee_process_new_purchase_oder</t>
-  </si>
-  <si>
-    <t>User_orders_Purchase_car,User_attends_a_NIO_event,Deliver_subscription_cars</t>
-  </si>
-  <si>
-    <t>User_orders_Purchase_car</t>
-  </si>
-  <si>
-    <t>Subscription_cars_delivery-related</t>
-  </si>
-  <si>
-    <t>User_uses_power_swap</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Activate_Home_Charger</t>
-  </si>
-  <si>
-    <t>No_Action_Needed</t>
-  </si>
-  <si>
-    <t>User_returns_a_leasing_car</t>
-  </si>
-  <si>
-    <t>Return_NIO_Accessory_NIO_Life</t>
-  </si>
-  <si>
-    <t>User_books_a_NIO_event_on_NIO_app,Process_Evaluation</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Validate_UGC</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Handles_Low_Star</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Answers_Debug</t>
-  </si>
-  <si>
-    <t>User_books_a_space_in_NIO_House</t>
-  </si>
-  <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user</t>
-  </si>
-  <si>
-    <t>SCR_receives_One-click_service_cancel_request_from_subscription_user</t>
-  </si>
-  <si>
-    <t>NIO_SCR_receives_RSA_request</t>
   </si>
   <si>
     <t>20230112-115337.jpg</t>
@@ -756,13 +681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,16 +709,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -805,21 +727,18 @@
         <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -828,24 +747,21 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -854,24 +770,21 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -880,24 +793,21 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -906,24 +816,21 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -932,24 +839,21 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -958,24 +862,21 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -984,24 +885,21 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -1010,24 +908,21 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -1036,24 +931,21 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -1062,24 +954,21 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>71</v>
@@ -1088,24 +977,21 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -1114,24 +1000,21 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
@@ -1140,24 +1023,21 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -1165,22 +1045,22 @@
       <c r="D16" t="s">
         <v>77</v>
       </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
       <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -1188,22 +1068,22 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -1211,22 +1091,22 @@
       <c r="D18" t="s">
         <v>78</v>
       </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
       <c r="F18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
@@ -1234,22 +1114,22 @@
       <c r="D19" t="s">
         <v>83</v>
       </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
       <c r="F19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
@@ -1258,24 +1138,21 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -1284,24 +1161,21 @@
         <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
@@ -1310,24 +1184,21 @@
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
@@ -1336,24 +1207,21 @@
         <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
@@ -1362,24 +1230,21 @@
         <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -1388,24 +1253,21 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>71</v>
@@ -1414,24 +1276,21 @@
         <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1440,24 +1299,21 @@
         <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>71</v>
@@ -1466,24 +1322,21 @@
         <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -1491,22 +1344,22 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
       <c r="F29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -1514,22 +1367,22 @@
       <c r="D30" t="s">
         <v>88</v>
       </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
       <c r="F30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
@@ -1537,22 +1390,22 @@
       <c r="D31" t="s">
         <v>88</v>
       </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
@@ -1560,22 +1413,22 @@
       <c r="D32" t="s">
         <v>88</v>
       </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
       <c r="F32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
@@ -1583,22 +1436,22 @@
       <c r="D33" t="s">
         <v>88</v>
       </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
       <c r="F33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -1606,22 +1459,22 @@
       <c r="D34" t="s">
         <v>88</v>
       </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
       <c r="F34" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>71</v>
@@ -1629,22 +1482,22 @@
       <c r="D35" t="s">
         <v>88</v>
       </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
       <c r="F35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -1652,22 +1505,22 @@
       <c r="D36" t="s">
         <v>88</v>
       </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
       <c r="F36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>71</v>
@@ -1676,24 +1529,21 @@
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
@@ -1702,24 +1552,21 @@
         <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>71</v>
@@ -1728,24 +1575,21 @@
         <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -1754,24 +1598,21 @@
         <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
@@ -1780,24 +1621,21 @@
         <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
@@ -1806,24 +1644,21 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
@@ -1832,24 +1667,21 @@
         <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
@@ -1858,24 +1690,21 @@
         <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
@@ -1884,24 +1713,21 @@
         <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -1910,24 +1736,21 @@
         <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
@@ -1936,24 +1759,21 @@
         <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>71</v>
@@ -1962,24 +1782,21 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>71</v>
@@ -1988,24 +1805,21 @@
         <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>71</v>
@@ -2014,24 +1828,21 @@
         <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>71</v>
@@ -2040,24 +1851,21 @@
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>71</v>
@@ -2066,24 +1874,21 @@
         <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
         <v>71</v>
@@ -2092,24 +1897,21 @@
         <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>71</v>
@@ -2118,24 +1920,21 @@
         <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>71</v>
@@ -2144,24 +1943,21 @@
         <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
@@ -2170,24 +1966,21 @@
         <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -2196,24 +1989,21 @@
         <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" t="s">
-        <v>120</v>
-      </c>
-      <c r="I57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -2222,24 +2012,21 @@
         <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
@@ -2248,24 +2035,21 @@
         <v>83</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="H59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
@@ -2274,27 +2058,24 @@
         <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
-      </c>
-      <c r="I60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
@@ -2302,25 +2083,25 @@
       <c r="D61" t="s">
         <v>84</v>
       </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="H61" t="s">
-        <v>123</v>
-      </c>
-      <c r="I61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>71</v>
@@ -2329,27 +2110,24 @@
         <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="H62" t="s">
-        <v>123</v>
-      </c>
-      <c r="I62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>71</v>
@@ -2358,55 +2136,63 @@
         <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
-      </c>
-      <c r="I63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
       </c>
-      <c r="I64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="H64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
       </c>
-      <c r="I65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="H65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="C66" t="s">
-        <v>71</v>
-      </c>
-      <c r="I66" t="s">
-        <v>125</v>
+      <c r="C67" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/helper/User_Process.xlsx
+++ b/helper/User_Process.xlsx
@@ -229,7 +229,7 @@
     <t>Business_Intelligence</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Subscription-Create-Leads,Purchase-Create-Leads,Op-Leasing-Create-Leads,Fin-Leasing-Create-Leads</t>

--- a/helper/User_Process.xlsx
+++ b/helper/User_Process.xlsx
@@ -304,12 +304,12 @@
     <t>Sample sentence for this process summary</t>
   </si>
   <si>
-    <t xml:space="preserve">This covers following user car-usage scenarios: 
+    <t>This covers following user car-usage scenarios: 
 -"one-click" services
 -maintenance
 -repair(vehicle is deliverable)
 -tire change(seasonal tire change/ small leakage)
--warranty </t>
+-warranty</t>
   </si>
   <si>
     <t>This covers following user car-usage scenarios:
